--- a/data/financial_statements/soci/NTAP.xlsx
+++ b/data/financial_statements/soci/NTAP.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-04-30</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-07-31</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>2015-10-31</t>
+  </si>
+  <si>
+    <t>2015-07-31</t>
+  </si>
+  <si>
+    <t>2015-04-30</t>
+  </si>
+  <si>
+    <t>2015-01-31</t>
+  </si>
+  <si>
+    <t>2014-10-31</t>
+  </si>
+  <si>
+    <t>2014-07-31</t>
+  </si>
+  <si>
+    <t>2014-04-30</t>
+  </si>
+  <si>
+    <t>2014-01-31</t>
+  </si>
+  <si>
+    <t>2013-10-31</t>
+  </si>
+  <si>
+    <t>2013-07-31</t>
+  </si>
+  <si>
+    <t>2013-04-30</t>
+  </si>
+  <si>
+    <t>2013-01-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,147 +604,147 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44773</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44681</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44592</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44500</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44316</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44135</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44043</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43951</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43861</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43769</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43677</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43585</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43496</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43404</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43312</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43220</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43131</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43039</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42947</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42855</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42766</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42674</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42582</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42490</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42400</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42308</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42216</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42124</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42035</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41943</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41851</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41759</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41670</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41578</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41486</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41394</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41305</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1663000000</v>
+        <v>1666000000</v>
       </c>
       <c r="C2">
-        <v>1592000000</v>
+        <v>1593000000</v>
       </c>
       <c r="D2">
-        <v>1680000000</v>
+        <v>1682000000</v>
       </c>
       <c r="E2">
         <v>1614000000</v>
       </c>
       <c r="F2">
-        <v>1566000000</v>
+        <v>1567000000</v>
       </c>
       <c r="G2">
         <v>1458000000</v>
@@ -739,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.0619</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="C3">
-        <v>0.0919</v>
+        <v>0.0926</v>
       </c>
       <c r="D3">
-        <v>0.0804</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="E3">
         <v>0.098</v>
       </c>
       <c r="F3">
-        <v>0.1059</v>
+        <v>0.1066</v>
       </c>
       <c r="G3">
         <v>0.119</v>
@@ -864,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>576000000</v>
+        <v>582000000</v>
       </c>
       <c r="C4">
-        <v>546000000</v>
+        <v>553000000</v>
       </c>
       <c r="D4">
-        <v>591000000</v>
+        <v>595000000</v>
       </c>
       <c r="E4">
-        <v>541000000</v>
+        <v>545000000</v>
       </c>
       <c r="F4">
-        <v>507000000</v>
+        <v>510000000</v>
       </c>
       <c r="G4">
         <v>459000000</v>
@@ -989,23 +1103,23 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1084000000</v>
+      </c>
+      <c r="C5">
+        <v>1040000000</v>
+      </c>
+      <c r="D5">
         <v>1087000000</v>
       </c>
-      <c r="C5">
-        <v>1046000000</v>
-      </c>
-      <c r="D5">
-        <v>1089000000</v>
-      </c>
       <c r="E5">
-        <v>1073000000</v>
+        <v>1069000000</v>
       </c>
       <c r="F5">
-        <v>1059000000</v>
+        <v>1057000000</v>
       </c>
       <c r="G5">
         <v>999000000</v>
@@ -1114,8 +1228,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>243000000</v>
@@ -1239,8 +1353,8 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
         <v>546000000</v>
@@ -1364,8 +1478,8 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
         <v>282000000</v>
@@ -1489,8 +1603,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>17000000</v>
@@ -1530,8 +1644,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>14000000</v>
@@ -1595,23 +1709,23 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>23000000</v>
+        <v>107000000</v>
       </c>
       <c r="C11">
-        <v>15000000</v>
+        <v>88000000</v>
       </c>
       <c r="D11">
-        <v>-21000000</v>
+        <v>92000000</v>
       </c>
       <c r="E11">
-        <v>-15000000</v>
+        <v>48000000</v>
       </c>
       <c r="F11">
-        <v>-14000000</v>
+        <v>44000000</v>
       </c>
       <c r="G11">
         <v>-12000000</v>
@@ -1708,8 +1822,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>305000000</v>
@@ -1833,8 +1947,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>-445000000</v>
@@ -1958,8 +2072,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
         <v>750000000</v>
@@ -2083,16 +2197,16 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AM15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>750000000</v>
@@ -2216,23 +2330,23 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="C17">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="D17">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="E17">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G17">
         <v>0.91</v>
@@ -2341,8 +2455,8 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>3.41</v>
@@ -2466,8 +2580,8 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>217000000</v>
@@ -2476,7 +2590,7 @@
         <v>220000000</v>
       </c>
       <c r="D19">
-        <v>223000000</v>
+        <v>222000000</v>
       </c>
       <c r="E19">
         <v>223000000</v>
@@ -2591,8 +2705,8 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>220000000</v>
@@ -2601,7 +2715,7 @@
         <v>224000000</v>
       </c>
       <c r="D20">
-        <v>229000000</v>
+        <v>228000000</v>
       </c>
       <c r="E20">
         <v>229000000</v>
@@ -2716,23 +2830,23 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>0.6536</v>
+        <v>0.6506999999999999</v>
       </c>
       <c r="C21">
-        <v>0.657</v>
+        <v>0.6529</v>
       </c>
       <c r="D21">
-        <v>0.6482</v>
+        <v>0.6463</v>
       </c>
       <c r="E21">
-        <v>0.6647999999999999</v>
+        <v>0.6623</v>
       </c>
       <c r="F21">
-        <v>0.6762</v>
+        <v>0.6745</v>
       </c>
       <c r="G21">
         <v>0.6852</v>
@@ -2841,23 +2955,23 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>0.1696</v>
+        <v>0.1693</v>
       </c>
       <c r="C22">
-        <v>0.1602</v>
+        <v>0.1601</v>
       </c>
       <c r="D22">
-        <v>0.1744</v>
+        <v>0.1742</v>
       </c>
       <c r="E22">
         <v>0.1989</v>
       </c>
       <c r="F22">
-        <v>0.1877</v>
+        <v>0.1876</v>
       </c>
       <c r="G22">
         <v>0.1708</v>
@@ -2966,23 +3080,23 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>0.1834</v>
+        <v>0.1831</v>
       </c>
       <c r="C23">
-        <v>0.1696</v>
+        <v>0.1695</v>
       </c>
       <c r="D23">
-        <v>0.1619</v>
+        <v>0.1617</v>
       </c>
       <c r="E23">
         <v>0.1896</v>
       </c>
       <c r="F23">
-        <v>0.1788</v>
+        <v>0.1787</v>
       </c>
       <c r="G23">
         <v>0.1626</v>
@@ -3091,23 +3205,23 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>0.451</v>
+        <v>0.4502</v>
       </c>
       <c r="C24">
-        <v>0.1344</v>
+        <v>0.1343</v>
       </c>
       <c r="D24">
-        <v>0.1542</v>
+        <v>0.154</v>
       </c>
       <c r="E24">
         <v>0.1561</v>
       </c>
       <c r="F24">
-        <v>0.143</v>
+        <v>0.1429</v>
       </c>
       <c r="G24">
         <v>0.1385</v>
@@ -3216,23 +3330,23 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>341000000</v>
+        <v>373000000</v>
       </c>
       <c r="C25">
-        <v>313000000</v>
+        <v>349000000</v>
       </c>
       <c r="D25">
-        <v>344000000</v>
+        <v>370000000</v>
       </c>
       <c r="E25">
-        <v>372000000</v>
+        <v>390000000</v>
       </c>
       <c r="F25">
-        <v>340000000</v>
+        <v>364000000</v>
       </c>
       <c r="G25">
         <v>295000000</v>
@@ -3341,8 +3455,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>282000000</v>
@@ -3466,8 +3580,8 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>750000000</v>
@@ -3591,8 +3705,8 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>750000000</v>
@@ -3716,8 +3830,8 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>3.4562</v>
@@ -3841,8 +3955,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>3.4091</v>
@@ -3966,8 +4080,8 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>3.4562</v>
@@ -4091,8 +4205,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>3.4091</v>
@@ -4216,8 +4330,8 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>220000000</v>
@@ -4341,23 +4455,23 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>0.2051</v>
+        <v>0.2239</v>
       </c>
       <c r="C34">
-        <v>0.1966</v>
+        <v>0.2191</v>
       </c>
       <c r="D34">
-        <v>0.2048</v>
+        <v>0.22</v>
       </c>
       <c r="E34">
-        <v>0.2305</v>
+        <v>0.2416</v>
       </c>
       <c r="F34">
-        <v>0.2171</v>
+        <v>0.2323</v>
       </c>
       <c r="G34">
         <v>0.2023</v>
@@ -4466,23 +4580,23 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>0.1287</v>
+        <v>0.1285</v>
       </c>
       <c r="C35">
-        <v>0.1765</v>
+        <v>0.1764</v>
       </c>
       <c r="D35">
-        <v>0.2446</v>
+        <v>0.2444</v>
       </c>
       <c r="E35">
         <v>0.1611</v>
       </c>
       <c r="F35">
-        <v>0.1903</v>
+        <v>0.1902</v>
       </c>
       <c r="G35">
         <v>0.166</v>
